--- a/out/table3.xlsx
+++ b/out/table3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottericr/Documents/Tufts/Research Projects/PCA vs PLS/out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E2446F-7D16-214D-BDDA-389C26F1B159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1F2BD2-25EE-9C40-8344-4AC5C19E4522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33260" yWindow="820" windowWidth="28040" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - review-table-rough" sheetId="1" r:id="rId1"/>
@@ -67,16 +67,6 @@
     <t>PCs used as variables</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>To test hypotheses about raw variables</t>
-    </r>
-  </si>
-  <si>
     <t>Researchers interested in which of many, potentially collinear predictors are related to a response.</t>
   </si>
   <si>
@@ -90,16 +80,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Yes</t>
-    </r>
-  </si>
-  <si>
     <t>PCs used in linear model or ANOVA.</t>
   </si>
   <si>
@@ -143,6 +123,12 @@
   </si>
   <si>
     <t>To test hypotheses about main axes of variation</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>To test hypotheses about raw variables</t>
   </si>
 </sst>
 </file>
@@ -220,7 +206,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -269,6 +255,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,7 +1425,7 @@
   <dimension ref="A1:IV16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1547,11 +1539,11 @@
     </row>
     <row r="10" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
-        <v>26</v>
+      <c r="B10" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="10">
         <v>19</v>
@@ -1559,11 +1551,11 @@
     </row>
     <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="D11" s="10">
         <v>40</v>
@@ -1571,19 +1563,19 @@
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
-        <v>17</v>
+      <c r="B12" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
+      <c r="B13" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="10">
         <v>18</v>
@@ -1591,11 +1583,11 @@
     </row>
     <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
+      <c r="B14" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="10">
         <v>9</v>
@@ -1603,11 +1595,11 @@
     </row>
     <row r="15" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
+      <c r="B15" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="10">
         <v>13</v>
@@ -1616,7 +1608,7 @@
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14">
